--- a/TradingSimula_18-2022/TF-Bollinger_1R.xlsx
+++ b/TradingSimula_18-2022/TF-Bollinger_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$174</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$174</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1386 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>-3400.049999999977</v>
+        <v>-20211.79999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>-15332.62749999999</v>
+        <v>-232269.4250000002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>-12832.62749999998</v>
+        <v>-208625.3450000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>-17554.35249999998</v>
+        <v>-388359.5324999997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>-7584.477499999974</v>
+        <v>-495775.0075000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>-2245.41449999997</v>
+        <v>-581002.8575000002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>-15893.22749999996</v>
+        <v>-580023.3074999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>-14711.03949999994</v>
+        <v>-556089.3574999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>11598.96050000008</v>
+        <v>-503574.4075</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>41489.27250000006</v>
+        <v>-585067.1425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>52207.9800000001</v>
+        <v>-617852.3925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>94755.5570000001</v>
+        <v>-581633.1924999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>79218.37000000011</v>
+        <v>-837190.4675</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>86993.68200000009</v>
+        <v>-834097.5174999998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>94145.07500000007</v>
+        <v>-689765.7175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>154563.1980000001</v>
+        <v>-776369.4824999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>78865.69800000013</v>
+        <v>-997575.0824999998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>81224.13500000015</v>
+        <v>-948650.8149999997</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>76058.51000000014</v>
+        <v>-878585.4950000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>63977.26000000014</v>
+        <v>-869101.0950000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>99343.51000000018</v>
+        <v>-737661.5450000003</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>44912.18000000021</v>
+        <v>-846100.5950000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>61009.6800000002</v>
+        <v>-880863.1200000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>80000.92050000015</v>
+        <v>-1057239.9425</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>62889.9825000002</v>
+        <v>-1019174.167500001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>55997.91750000023</v>
+        <v>-1063407.590000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>50020.55250000021</v>
+        <v>-953007.7950000006</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>48646.0100000002</v>
+        <v>-1154150.175000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>57982.63500000018</v>
+        <v>-1009430.375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>48363.57750000017</v>
+        <v>-1060653.23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>73864.82750000019</v>
+        <v>-958265.3300000003</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>78388.92800000017</v>
+        <v>-997043.8550000003</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>92718.95750000018</v>
+        <v>-833532.6300000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>72528.95750000019</v>
+        <v>-990991.0950000004</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>57291.13250000018</v>
+        <v>-944894.2200000007</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>63287.75750000018</v>
+        <v>-1002287.155000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>54568.16500000021</v>
+        <v>-910298.0550000003</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>57685.36750000021</v>
+        <v>-1156931.82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>63967.86750000019</v>
+        <v>-1339835.0775</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>82463.1100000002</v>
+        <v>-1429350.0775</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>94165.58250000019</v>
+        <v>-1408414.65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>110057.7695000002</v>
+        <v>-1408247.45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>105377.4575000002</v>
+        <v>-1203602.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>87316.51950000017</v>
+        <v>-1200406.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>70582.20750000016</v>
+        <v>-1216740.2725</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>73695.10500000016</v>
+        <v>-1011603.2725</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>74552.60500000019</v>
+        <v>-1050340.6725</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>77721.70750000014</v>
+        <v>-348818.2650000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>71326.70750000014</v>
+        <v>46461.19499999983</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>60696.70750000013</v>
+        <v>792525.6699999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>56852.4075000001</v>
+        <v>1396995.81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>53542.40750000015</v>
+        <v>360014.6900000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>21798.94250000018</v>
+        <v>345643.165</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>7304.932500000163</v>
+        <v>178208.5650000002</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>35881.3075000002</v>
+        <v>40948.53000000012</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>-14983.18949999983</v>
+        <v>-203244.7599999993</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>-18433.31249999971</v>
+        <v>-330452.8349999997</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>-85493.14699999939</v>
+        <v>-467393.7849999998</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>-19174.08499999936</v>
+        <v>-277042.8149999996</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>-92791.33999999933</v>
+        <v>-903730.0900000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>-80055.90699999929</v>
+        <v>-958943.14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>-94833.84749999914</v>
+        <v>-917899.29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>-138313.847499999</v>
+        <v>-921245.7899999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>-146334.667499999</v>
+        <v>-1072685.22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>-154842.947499999</v>
+        <v>-1269284.27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>-154690.4224999991</v>
+        <v>-1567135.920000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>-200261.0474999992</v>
+        <v>-1669018.795000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>-90803.10249999919</v>
+        <v>-1727783.855000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>-73603.10249999922</v>
+        <v>-1876794.355</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>-176151.6174999993</v>
+        <v>-1675165.8175</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>-170906.3804999992</v>
+        <v>-998297.8175000004</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>-177128.1574999992</v>
+        <v>-508553.3975000005</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>-214483.0374999991</v>
+        <v>469684.3024999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>-234659.2874999991</v>
+        <v>310740.2124999998</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>-277963.1024999992</v>
+        <v>1882128.8875</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>-265214.5274999992</v>
+        <v>4868547.6375</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>-274519.5274999992</v>
+        <v>5267764.1625</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>-268482.7524999993</v>
+        <v>4114553.4375</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>-224891.1904999991</v>
+        <v>3893071.729999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>-230436.5354999991</v>
+        <v>3872866.047499999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>-263816.5354999992</v>
+        <v>3896885.497499999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>-266939.1384999991</v>
+        <v>3930511.559999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>-374644.634999999</v>
+        <v>4619657.422499998</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>-311973.0729999989</v>
+        <v>4843348.642499998</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>-304639.9479999989</v>
+        <v>5261224.044999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>-197494.4149999989</v>
+        <v>4430753.624999996</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>-213988.5574999989</v>
+        <v>3922274.144999998</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>-184262.1219999989</v>
+        <v>4726343.859999998</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>-209062.4349999989</v>
+        <v>4361310.719999998</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>-197673.3719999989</v>
+        <v>4121549.119999997</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>-141670.7424999989</v>
+        <v>3710150.297499997</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>-130920.2319999989</v>
+        <v>3178562.469999996</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>-100820.8349999989</v>
+        <v>2877364.869999996</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>5160.954500001135</v>
+        <v>2517372.344999996</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>103170.9545000011</v>
+        <v>2209342.869999997</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>147283.1425000011</v>
+        <v>2370908.494999996</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>307873.7675000011</v>
+        <v>2489818.919999998</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>109963.1425000011</v>
+        <v>4725633.669999998</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>49538.14250000098</v>
+        <v>3363025.519999998</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>49819.39250000099</v>
+        <v>3305433.712499998</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>-21725.68799999886</v>
+        <v>2784043.462499997</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>-23908.61549999884</v>
+        <v>2238882.497499997</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>-18316.11549999884</v>
+        <v>902441.6349999992</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>66067.63450000118</v>
+        <v>2292703.785</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>107184.6465000012</v>
+        <v>4291476.095</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>-44480.74299999874</v>
+        <v>8483307.68</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>-204657.3429999987</v>
+        <v>8776356.684999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>-87866.27799999864</v>
+        <v>9093004.189999998</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>-256931.2779999986</v>
+        <v>9259007.819999998</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>-256817.5279999985</v>
+        <v>9263800.067499999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>-255623.1529999985</v>
+        <v>9432510.592499997</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>-245632.5279999986</v>
+        <v>9541399.492499998</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>-222902.8399999985</v>
+        <v>10525633.3975</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>-356451.2779999984</v>
+        <v>9710505.247499999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>-329732.2149999984</v>
+        <v>10588916.98</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>-490340.0279999982</v>
+        <v>11131407.23</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>-502434.2354999982</v>
+        <v>11613368.18</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>-506576.9179999982</v>
+        <v>11741184.745</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>-459296.9179999982</v>
+        <v>13519622.4675</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>-408181.4979999982</v>
+        <v>13162279.4025</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>-443641.5249999982</v>
+        <v>12562649.2225</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>-257224.9629999982</v>
+        <v>12381975.1225</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>124829.4120000018</v>
+        <v>11969821.4125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>-162043.0879999982</v>
+        <v>11506743.8025</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>-215574.9629999983</v>
+        <v>10594466.565</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>-216923.4499999982</v>
+        <v>10268734.225</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>-189394.9379999982</v>
+        <v>9344054.164999995</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>-86806.42049999829</v>
+        <v>9441374.699999999</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>-312793.9204999984</v>
+        <v>11156983.955</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>-332590.1354999984</v>
+        <v>12806555.015</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>-259010.0354999984</v>
+        <v>14830819.1175</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>-144549.5154999983</v>
+        <v>17876859.25999999</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>-216115.5354999983</v>
+        <v>15910161.375</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>-96799.43099999835</v>
+        <v>17006638.93499999</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>104910.8820000017</v>
+        <v>18385863.49499999</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>207573.0690000016</v>
+        <v>23803600.88999999</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>271972.5520000017</v>
+        <v>16860301.2775</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>147116.5845000013</v>
+        <v>16822977.3125</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>137748.6220000012</v>
+        <v>16825318.1875</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>206042.1120000012</v>
+        <v>15248070.80249999</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>27142.22900000146</v>
+        <v>17204015.6025</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>-66680.58299999837</v>
+        <v>13723927.82749999</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>-123593.5079999983</v>
+        <v>14501278.77749999</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>-146441.6329999984</v>
+        <v>16948331.8775</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>-393749.4459999977</v>
+        <v>15383980.385</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>-389602.2579999978</v>
+        <v>14746961.89249999</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44651</v>
+        <v>40998</v>
       </c>
       <c r="B149" t="n">
-        <v>-492661.1579999976</v>
+        <v>13356398.91749999</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44680</v>
+        <v>41029</v>
       </c>
       <c r="B150" t="n">
-        <v>-490001.1579999976</v>
+        <v>13038165.735</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44712</v>
+        <v>41060</v>
       </c>
       <c r="B151" t="n">
-        <v>-519971.1579999978</v>
+        <v>14621465.035</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44742</v>
+        <v>41089</v>
       </c>
       <c r="B152" t="n">
-        <v>-280526.1579999979</v>
+        <v>14294049.585</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44771</v>
+        <v>41121</v>
       </c>
       <c r="B153" t="n">
-        <v>-458236.1579999979</v>
+        <v>14353112.70749999</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44804</v>
+        <v>41152</v>
       </c>
       <c r="B154" t="n">
-        <v>-701316.1579999981</v>
+        <v>14831196.27499999</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44834</v>
+        <v>41180</v>
       </c>
       <c r="B155" t="n">
-        <v>-600866.1579999981</v>
+        <v>16919426.12499999</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44865</v>
+        <v>41213</v>
       </c>
       <c r="B156" t="n">
-        <v>-879761.1579999982</v>
+        <v>15240808.62249999</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44895</v>
+        <v>41243</v>
       </c>
       <c r="B157" t="n">
-        <v>-892111.1579999982</v>
+        <v>14591567.14999999</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44925</v>
+        <v>41274</v>
       </c>
       <c r="B158" t="n">
-        <v>-892111.1579999982</v>
+        <v>14843905.5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44957</v>
+        <v>41305</v>
       </c>
       <c r="B159" t="n">
-        <v>-893751.1579999982</v>
+        <v>13792300.56</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44985</v>
+        <v>41333</v>
       </c>
       <c r="B160" t="n">
-        <v>-897886.1579999983</v>
+        <v>14347581.23</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45016</v>
+        <v>41361</v>
       </c>
       <c r="B161" t="n">
-        <v>-951051.1579999983</v>
+        <v>14594340.3925</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45044</v>
+        <v>41394</v>
       </c>
       <c r="B162" t="n">
-        <v>-962221.1579999985</v>
+        <v>17231283.33499999</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45077</v>
+        <v>41425</v>
       </c>
       <c r="B163" t="n">
-        <v>-942616.1579999985</v>
+        <v>17986639.68499999</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45107</v>
+        <v>41453</v>
       </c>
       <c r="B164" t="n">
-        <v>-941446.1579999983</v>
+        <v>19924557.52</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45138</v>
+        <v>41486</v>
       </c>
       <c r="B165" t="n">
-        <v>-936476.1579999976</v>
+        <v>19404483.255</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45169</v>
+        <v>41516</v>
       </c>
       <c r="B166" t="n">
-        <v>-1087241.157999998</v>
+        <v>17971354.955</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45198</v>
+        <v>41547</v>
       </c>
       <c r="B167" t="n">
-        <v>-1068926.157999998</v>
+        <v>16805678.5825</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45230</v>
+        <v>41578</v>
       </c>
       <c r="B168" t="n">
-        <v>-1017001.157999998</v>
+        <v>16811302.2825</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45260</v>
+        <v>41607</v>
       </c>
       <c r="B169" t="n">
-        <v>-1174311.157999998</v>
+        <v>16678686.0325</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45289</v>
+        <v>41639</v>
       </c>
       <c r="B170" t="n">
-        <v>-998601.1579999977</v>
+        <v>16787739.7075</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45322</v>
+        <v>41670</v>
       </c>
       <c r="B171" t="n">
-        <v>-967426.1579999977</v>
+        <v>16541012.29</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45351</v>
+        <v>41698</v>
       </c>
       <c r="B172" t="n">
-        <v>-874316.1579999977</v>
+        <v>15506862.14</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45379</v>
+        <v>41729</v>
       </c>
       <c r="B173" t="n">
-        <v>-801881.1579999977</v>
+        <v>15268971.2025</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45412</v>
+        <v>41759</v>
       </c>
       <c r="B174" t="n">
-        <v>-964996.1579999981</v>
+        <v>15268902.155</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45415</v>
+        <v>41789</v>
       </c>
       <c r="B175" t="n">
-        <v>-1048896.157999998</v>
+        <v>15019652.88</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>14395367.705</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>14033991.905</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>13577976.705</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>14111561.82</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>14455135.245</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>15311855.0375</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>15297324.5125</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>15271095.7075</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>14478878.64</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>14391501.19</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>14475909.44</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>14078208.89</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>13946892.79</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>14781045.025</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>15008218.285</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>14322063.1525</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>13936638.505</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>14188393.4425</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>13973168.0725</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>14112210.5725</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>13564684.5375</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>13712686.5075</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>14730309.7075</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>13816327.7625</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>14013094.2675</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>14904671.5325</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>13936420.075</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>13909959.125</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>13707721.5875</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>14229569.9625</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>14227823.3275</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>14104834.6475</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>14178816.93</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>13891596.45</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>13861491.1875</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>13300536.6275</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>13204764.5625</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>13254051.0625</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>13729362.0025</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>12968158.9325</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>13434862.0325</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>13353964.1075</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>13352977.4475</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>12870774.9675</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>12472060.7675</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>12309139.8675</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>11984694.3725</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>11926406.14</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>11389605.24</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>12045391.29</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>13023730.54</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>12575741.5625</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>12620109.2625</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>12226812.995</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>12660675.3975</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>12503121.6475</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>12543448.3225</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>12270231.0475</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>12111577.5725</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>12353090.6625</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>11782102.4225</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>12108714.8375</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>12909904.5325</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>11957329.515</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>12216649.3925</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>11697095.8925</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>11977173.0625</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>11266095.77</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>10943650.01</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>12779506.135</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>11815716.685</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>11017813.26</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>11163955.15</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>13587994.88</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>16345690.6225</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>13165367.6725</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>12527531.18</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>13289297.69</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>12450031.25</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>11274504.72</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>12532160.7325</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>11770136.0425</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>12244933.3825</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>12750654.8</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>11041231.2225</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>11027910.2175</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>10733018.025</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>11553475.455</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>9529232.105000002</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>9458332.635</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>8563945.465000002</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>8320727.050000001</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>7535542.775</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B269" t="n">
+        <v>8585556.775000002</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>7787222.550000001</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>7889259.425000001</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>9150581.925000001</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>9359108.029999999</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>10351465.93</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>9707344.570000002</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>9031168.380000003</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>9530349.720000003</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>10836353.37</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>11796902.1725</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>10566699.8825</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>8979694.590000002</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>8646041.470000001</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>8377343.575000002</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>7685599.850000001</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>7805222.590000001</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>7642567.475000001</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>7435414.175000001</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>7004378.265000002</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>7160204.432500002</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>6315665.937500002</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>5915627.822500002</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>6012762.865000002</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>6070265.865000001</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>8161618.140000002</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>10040139.105</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>9103796.102499999</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>9492759.5975</v>
       </c>
     </row>
   </sheetData>
